--- a/projecting/Api/Api.xlsx
+++ b/projecting/Api/Api.xlsx
@@ -4,11 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист1!$E$8:$M$44</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="122">
   <si>
     <t>/api</t>
   </si>
@@ -102,9 +106,6 @@
     <t>/studyplan/subject/week/day</t>
   </si>
   <si>
-    <t>/studyplan/subject/weel/hours</t>
-  </si>
-  <si>
     <t>Позволяет указать дни в неделю по предмету</t>
   </si>
   <si>
@@ -121,13 +122,353 @@
   </si>
   <si>
     <t>Позволяет поставить оценку студенту</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>Метод</t>
+  </si>
+  <si>
+    <t>Статус-код</t>
+  </si>
+  <si>
+    <t>Принимаемые данные (body)</t>
+  </si>
+  <si>
+    <t>Возвращаемые данные (data)</t>
+  </si>
+  <si>
+    <t>Заголовок запроса(headers)</t>
+  </si>
+  <si>
+    <t>Нужна авторизация?</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{code,name,about}
+</t>
+  </si>
+  <si>
+    <t>ДА</t>
+  </si>
+  <si>
+    <t>headers:{
+Authorization:"Bearer token"
+}
+token=&gt;{type="super_admin",admin_id}</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>Позволяет изменить существующую запись</t>
+  </si>
+  <si>
+    <t>/spec/:spec_id</t>
+  </si>
+  <si>
+    <t>Позволяет удалить существующую запись</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>Принимаемые данные некорректны</t>
+  </si>
+  <si>
+    <t>{message:"Введены некорректные данные",
+body:{errors:[]}
+}</t>
+  </si>
+  <si>
+    <t>Принимаемый spec_id не существует</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{name}
+</t>
+  </si>
+  <si>
+    <t>/teacher/:teacher_id</t>
+  </si>
+  <si>
+    <t>Позволяет создать новую запись</t>
+  </si>
+  <si>
+    <t>Позволяет получить все записи</t>
+  </si>
+  <si>
+    <t>{message:"Новая запись успешно добавлена",
+body:{spec}}</t>
+  </si>
+  <si>
+    <t>{message:"Запись успешно изменена",
+body:{spec}
+}</t>
+  </si>
+  <si>
+    <t>{message:"Запись удалена"}</t>
+  </si>
+  <si>
+    <t>{message:"Новая запись успешно добавлена",
+body:{teacher}}</t>
+  </si>
+  <si>
+    <t>{message:"Запись успешно изменена",
+body:{teacher}
+}</t>
+  </si>
+  <si>
+    <t>{message:"Все записи успешно получены",
+body:{teachers:[]}
+}</t>
+  </si>
+  <si>
+    <t>{message:"Все записи успешно получены",
+body:{specs:[]}
+}</t>
+  </si>
+  <si>
+    <t>Принимаемый teacher_id не существует</t>
+  </si>
+  <si>
+    <t>{message:"Такой записи не существует"}</t>
+  </si>
+  <si>
+    <t>{message:"Новая запись успешно добавлена",
+body:{student}}</t>
+  </si>
+  <si>
+    <t>/student/:student_id</t>
+  </si>
+  <si>
+    <t>{message:"Запись успешно изменена",
+body:{student}
+}</t>
+  </si>
+  <si>
+    <t>{message:"Все записи успешно получены",
+body:{students:[]}
+}</t>
+  </si>
+  <si>
+    <t>Принимаемый student_id не существует</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{name,group_id}
+</t>
+  </si>
+  <si>
+    <t>{message:"Новая запись успешно добавлена",
+body:{subject}}</t>
+  </si>
+  <si>
+    <t>/subject/:subject_id</t>
+  </si>
+  <si>
+    <t>{message:"Запись успешно изменена",
+body:{subject}
+}</t>
+  </si>
+  <si>
+    <t>{message:"Все записи успешно получены",
+body:{subjects:[]}
+}</t>
+  </si>
+  <si>
+    <t>Принимаемый subject_id не существует</t>
+  </si>
+  <si>
+    <t>{message:"Новая запись успешно добавлена",
+body:{group}}</t>
+  </si>
+  <si>
+    <t>/group/:group_id</t>
+  </si>
+  <si>
+    <t>{message:"Запись успешно изменена",
+body:{group}
+}</t>
+  </si>
+  <si>
+    <t>{message:"Все записи успешно получены",
+body:{groups:[]}
+}</t>
+  </si>
+  <si>
+    <t>Принимаемый group_id не существует</t>
+  </si>
+  <si>
+    <t>headers:{
+Authorization:"Bearer token"
+}
+token=&gt;{type:"admin",admin_id}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{year}
+</t>
+  </si>
+  <si>
+    <t>/studyplan/group/:group_plan_id</t>
+  </si>
+  <si>
+    <t>/studyplan/subject/:plan_subject_id</t>
+  </si>
+  <si>
+    <t>/studyplan/:study_plan_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{study_plan_id,group_id}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{subject_id,group_plan_id,teacher_id}
+</t>
+  </si>
+  <si>
+    <t>/studyplan/week/:plan_week_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{group_plan_id,start_date,end_date}
+</t>
+  </si>
+  <si>
+    <t>/studyplan/subject/week/hours</t>
+  </si>
+  <si>
+    <t>/studyplan/subject/week/hours/:subject_week_hours_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{plan_week_id,group_plan_id,hours}
+</t>
+  </si>
+  <si>
+    <t>/studyplan/subject/week/day/:plan_day_id</t>
+  </si>
+  <si>
+    <t>{message:"Новая запись успешно добавлена",
+body:{group_plan}}</t>
+  </si>
+  <si>
+    <t>{message:"Запись успешно изменена",
+body:{group_plan}
+}</t>
+  </si>
+  <si>
+    <t>{message:"Все записи успешно получены",
+body:{group_plans:[]}
+}</t>
+  </si>
+  <si>
+    <t>{message:"Новая запись успешно добавлена",
+body:{study_plan}}</t>
+  </si>
+  <si>
+    <t>{message:"Запись успешно изменена",
+body:{study_plan}
+}</t>
+  </si>
+  <si>
+    <t>{message:"Все записи успешно получены",
+body:{study_plans:[]}
+}</t>
+  </si>
+  <si>
+    <t>{message:"Новая запись успешно добавлена",
+body:{plan_subject}}</t>
+  </si>
+  <si>
+    <t>{message:"Запись успешно изменена",
+body:{plan_subject}
+}</t>
+  </si>
+  <si>
+    <t>{message:"Все записи успешно получены",
+body:{plan_subjects:[]}
+}</t>
+  </si>
+  <si>
+    <t>{message:"Новая запись успешно добавлена",
+body:{plan_week}}</t>
+  </si>
+  <si>
+    <t>{message:"Запись успешно изменена",
+body:{plan_week}
+}</t>
+  </si>
+  <si>
+    <t>{message:"Все записи успешно получены",
+body:{plan_weeks:[]}
+}</t>
+  </si>
+  <si>
+    <t>{message:"Новая запись успешно добавлена",
+body:{subject_week_hour}}</t>
+  </si>
+  <si>
+    <t>{message:"Запись успешно изменена",
+body:{subject_week_hour}
+}</t>
+  </si>
+  <si>
+    <t>{message:"Все записи успешно получены",
+body:{subject_week_hours:[]}
+}</t>
+  </si>
+  <si>
+    <t>{message:"Новая запись успешно добавлена",
+body:{plan_day}}</t>
+  </si>
+  <si>
+    <t>{message:"Запись успешно изменена",
+body:{plan_day}
+}</t>
+  </si>
+  <si>
+    <t>{message:"Все записи успешно получены",
+body:{plan_days:[]}
+}</t>
+  </si>
+  <si>
+    <t>Принимаемый id не существует</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{plan_week_id,plan_subject_id,number,date}
+</t>
+  </si>
+  <si>
+    <t>/study_plan</t>
+  </si>
+  <si>
+    <t>/study_plan/group</t>
+  </si>
+  <si>
+    <t>/study_plan/subject</t>
+  </si>
+  <si>
+    <t>/study_plan/week</t>
+  </si>
+  <si>
+    <t>/study_plan/subject/week/hours</t>
+  </si>
+  <si>
+    <t>/study_plan/subject/week/day</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,33 +495,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -240,17 +554,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -258,24 +565,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -560,169 +866,2644 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C24"/>
+  <dimension ref="B2:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43" customWidth="1"/>
+    <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <f>B6+1</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <f>B7+1</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <f t="shared" ref="B9:B11" si="0">B8+1</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <f>B13+1</f>
+        <v>1</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <f t="shared" ref="B15:B19" si="1">B14+1</f>
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="C17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C18" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="6">
+        <f>B21+1</f>
+        <v>1</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="6">
+        <f t="shared" ref="B23" si="2">B22+1</f>
+        <v>2</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E7:M106"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="2" max="2" width="30.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43" style="8" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="8"/>
+    <col min="6" max="6" width="49.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="8"/>
+    <col min="9" max="9" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.42578125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="20" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="5:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="3">
+        <v>201</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="3">
+        <v>200</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="3">
+        <v>400</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="3">
+        <v>200</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="7">
+        <v>201</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="7">
+        <v>200</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="7">
+        <v>200</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="7">
+        <v>400</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="5:13" collapsed="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="5:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="E17" s="8">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="3">
+        <v>201</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="3">
+        <v>200</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="3">
+        <v>400</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="3">
+        <v>200</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="7">
+        <v>201</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" s="7">
+        <v>200</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" s="7">
+        <v>200</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="5:13" collapsed="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="5:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="E26" s="8">
+        <v>3</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="3">
+        <v>201</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" s="3">
+        <v>200</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" s="3">
+        <v>400</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I29" s="3">
+        <v>200</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30" s="7">
+        <v>201</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I31" s="7">
+        <v>200</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F32" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32" s="7">
+        <v>200</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" s="7">
+        <v>400</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="5:13" collapsed="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="5:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="E35" s="8">
+        <v>4</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I35" s="3">
+        <v>201</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I36" s="3">
+        <v>200</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I37" s="3">
+        <v>400</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I38" s="3">
+        <v>200</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F39" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I39" s="7">
+        <v>201</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F40" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I40" s="7">
+        <v>200</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F41" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I41" s="7">
+        <v>200</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F42" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I42" s="7">
+        <v>400</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="5:13" collapsed="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="5:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="E44" s="8">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I44" s="3">
+        <v>201</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="5:13" ht="90" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F45" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I45" s="3">
+        <v>200</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="5:13" ht="90" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F46" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I46" s="3">
+        <v>400</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="5:13" ht="90" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I47" s="3">
+        <v>200</v>
+      </c>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="5:13" ht="90" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F48" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I48" s="7">
+        <v>201</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="5:13" ht="90" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F49" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I49" s="7">
+        <v>200</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="5:13" ht="90" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F50" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I50" s="7">
+        <v>200</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="5:13" ht="90" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F51" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I51" s="7">
+        <v>400</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="5:13" collapsed="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="5:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="E53" s="8">
+        <v>6</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I53" s="3">
+        <v>201</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="5:13" ht="90" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F54" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I54" s="3">
+        <v>200</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="5:13" ht="90" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F55" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I55" s="3">
+        <v>400</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="5:13" ht="90" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F56" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I56" s="3">
+        <v>200</v>
+      </c>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="5:13" ht="90" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F57" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I57" s="7">
+        <v>201</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M57" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="5:13" ht="90" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F58" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I58" s="7">
+        <v>200</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M58" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="5:13" ht="90" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F59" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I59" s="7">
+        <v>200</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M59" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="5:13" ht="90" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F60" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I60" s="7">
+        <v>400</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L60" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M60" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="5:13" collapsed="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="5:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="E62" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="F62" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I62" s="3">
+        <v>201</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="5:13" ht="90" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F63" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I63" s="3">
+        <v>200</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="5:13" ht="90" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F64" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I64" s="3">
+        <v>400</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="5:13" ht="90" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F65" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I65" s="3">
+        <v>200</v>
+      </c>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="5:13" ht="90" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F66" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I66" s="7">
+        <v>201</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L66" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M66" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="5:13" ht="90" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F67" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I67" s="7">
+        <v>200</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L67" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M67" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="5:13" ht="90" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F68" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I68" s="7">
+        <v>200</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L68" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M68" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="5:13" ht="90" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F69" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I69" s="7">
+        <v>400</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L69" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M69" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="5:13" collapsed="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="5:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="E71" s="8">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="F71" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I71" s="3">
+        <v>201</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F72" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I72" s="3">
+        <v>200</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F73" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I73" s="3">
+        <v>400</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F74" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I74" s="3">
+        <v>200</v>
+      </c>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F75" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I75" s="7">
+        <v>201</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L75" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M75" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F76" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I76" s="7">
+        <v>200</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L76" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M76" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F77" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I77" s="7">
+        <v>200</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L77" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M77" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F78" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I78" s="7">
+        <v>400</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L78" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M78" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" spans="5:13" collapsed="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="5:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="E80" s="8">
+        <v>9</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I80" s="3">
+        <v>201</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M80" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F81" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I81" s="3">
+        <v>200</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F82" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I82" s="3">
+        <v>400</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M82" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F83" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I83" s="3">
+        <v>200</v>
+      </c>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="84" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F84" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I84" s="7">
+        <v>201</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K84" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L84" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M84" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F85" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I85" s="7">
+        <v>200</v>
+      </c>
+      <c r="J85" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K85" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L85" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M85" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F86" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I86" s="7">
+        <v>200</v>
+      </c>
+      <c r="J86" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K86" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L86" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M86" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F87" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I87" s="7">
+        <v>400</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L87" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M87" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="88" spans="5:13" collapsed="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="5:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="E89" s="8">
+        <v>10</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I89" s="3">
+        <v>201</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F90" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I90" s="3">
+        <v>200</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M90" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F91" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I91" s="3">
+        <v>400</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F92" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I92" s="3">
+        <v>200</v>
+      </c>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M92" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F93" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I93" s="7">
+        <v>201</v>
+      </c>
+      <c r="J93" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K93" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L93" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M93" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F94" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I94" s="7">
+        <v>200</v>
+      </c>
+      <c r="J94" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K94" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L94" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M94" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F95" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I95" s="7">
+        <v>200</v>
+      </c>
+      <c r="J95" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K95" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L95" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M95" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F96" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I96" s="7">
+        <v>400</v>
+      </c>
+      <c r="J96" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K96" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L96" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M96" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97" spans="5:13" collapsed="1" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="5:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="E98" s="8">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
+      <c r="F98" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I98" s="3">
+        <v>201</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M98" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F99" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I99" s="3">
+        <v>200</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="L99" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M99" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="100" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F100" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I100" s="3">
+        <v>400</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="101" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F101" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="13"/>
-    </row>
-    <row r="23" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
+      <c r="G101" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I101" s="3">
+        <v>200</v>
+      </c>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="102" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F102" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I102" s="7">
+        <v>201</v>
+      </c>
+      <c r="J102" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K102" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L102" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M102" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="103" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F103" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I103" s="7">
+        <v>200</v>
+      </c>
+      <c r="J103" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K103" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L103" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M103" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="104" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F104" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I104" s="7">
+        <v>200</v>
+      </c>
+      <c r="J104" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K104" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L104" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M104" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="105" spans="5:13" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F105" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I105" s="7">
+        <v>400</v>
+      </c>
+      <c r="J105" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K105" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L105" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M105" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="106" spans="5:13" collapsed="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
